--- a/Tests/UnderReview/Cotton/Observed/DouglasDaly21Observed.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/DouglasDaly21Observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8E4EF1-760C-47C0-BD35-93584F7FBFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4450B8B-4ED6-4860-A4EC-32E1BF675764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
   </bookViews>
   <sheets>
     <sheet name="CottonObserved" sheetId="1" r:id="rId1"/>
@@ -479,9 +479,6 @@
     <t>Cotton.Leaf.ExtinctionCoefficientError</t>
   </si>
   <si>
-    <t>Cotton.Leaf.SpecificArea</t>
-  </si>
-  <si>
     <t>SQ.N</t>
   </si>
   <si>
@@ -588,6 +585,9 @@
   </si>
   <si>
     <t>Cotton.Boll.Wt</t>
+  </si>
+  <si>
+    <t>Cotton.Leaf.SpecificAreaCanopy</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1012,10 @@
   <dimension ref="A1:FJ80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BH1048516" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BJ1" sqref="BJ1"/>
+      <selection pane="bottomRight" activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1299,7 +1299,7 @@
         <v>137</v>
       </c>
       <c r="AQ1" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="AR1" t="s">
         <v>64</v>
@@ -1314,10 +1314,10 @@
         <v>107</v>
       </c>
       <c r="AV1" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AW1" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AX1" t="s">
         <v>108</v>
@@ -1326,19 +1326,19 @@
         <v>109</v>
       </c>
       <c r="AZ1" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BA1" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="BB1" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="BB1" s="13" t="s">
+      <c r="BC1" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="BC1" s="13" t="s">
+      <c r="BD1" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="BD1" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="BE1" t="s">
         <v>110</v>
@@ -1350,7 +1350,7 @@
         <v>112</v>
       </c>
       <c r="BH1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BI1" t="s">
         <v>113</v>
@@ -1368,7 +1368,7 @@
         <v>115</v>
       </c>
       <c r="BN1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BO1" t="s">
         <v>9</v>
@@ -1380,10 +1380,10 @@
         <v>134</v>
       </c>
       <c r="BR1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BS1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BT1" t="s">
         <v>116</v>
@@ -1455,115 +1455,115 @@
         <v>97</v>
       </c>
       <c r="CQ1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="CR1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CS1" t="s">
         <v>85</v>
       </c>
       <c r="CT1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="CU1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="CV1" t="s">
         <v>86</v>
       </c>
       <c r="CW1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="CX1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="CY1" t="s">
         <v>94</v>
       </c>
       <c r="CZ1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="DA1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="DB1" t="s">
         <v>93</v>
       </c>
       <c r="DC1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="DD1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="DE1" t="s">
         <v>92</v>
       </c>
       <c r="DF1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="DG1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DH1" t="s">
         <v>102</v>
       </c>
       <c r="DI1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DJ1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="DK1" t="s">
         <v>103</v>
       </c>
       <c r="DL1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="DM1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DN1" t="s">
         <v>91</v>
       </c>
       <c r="DO1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="DP1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="DQ1" t="s">
         <v>90</v>
       </c>
       <c r="DR1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="DS1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="DT1" t="s">
         <v>89</v>
       </c>
       <c r="DU1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="DV1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="DW1" t="s">
         <v>88</v>
       </c>
       <c r="DX1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="DY1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="DZ1" t="s">
         <v>87</v>
       </c>
       <c r="EA1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="EB1" t="s">
         <v>49</v>

--- a/Tests/UnderReview/Cotton/Observed/DouglasDaly21Observed.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/DouglasDaly21Observed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4450B8B-4ED6-4860-A4EC-32E1BF675764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F006E8FD-5DBE-48A5-B530-D237EC7C0424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
+    <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="17640" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
   </bookViews>
   <sheets>
     <sheet name="CottonObserved" sheetId="1" r:id="rId1"/>
@@ -1012,166 +1012,166 @@
   <dimension ref="A1:FJ80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ2" sqref="AQ2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.86328125" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1328125" customWidth="1"/>
-    <col min="5" max="5" width="37.59765625" customWidth="1"/>
-    <col min="6" max="6" width="13.265625" customWidth="1"/>
-    <col min="7" max="7" width="35.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" customWidth="1"/>
     <col min="10" max="10" width="32" customWidth="1"/>
-    <col min="11" max="11" width="19.1328125" customWidth="1"/>
-    <col min="12" max="13" width="20.265625" customWidth="1"/>
-    <col min="14" max="14" width="26.73046875" customWidth="1"/>
-    <col min="15" max="15" width="21.73046875" customWidth="1"/>
-    <col min="16" max="16" width="18.73046875" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
     <col min="17" max="17" width="34" customWidth="1"/>
-    <col min="18" max="18" width="31.73046875" customWidth="1"/>
+    <col min="18" max="18" width="31.7109375" customWidth="1"/>
     <col min="19" max="19" width="33" customWidth="1"/>
     <col min="20" max="20" width="30" customWidth="1"/>
-    <col min="21" max="21" width="33.265625" customWidth="1"/>
-    <col min="22" max="22" width="31.59765625" customWidth="1"/>
-    <col min="23" max="23" width="34.86328125" customWidth="1"/>
-    <col min="24" max="24" width="13.3984375" customWidth="1"/>
-    <col min="25" max="25" width="16.3984375" customWidth="1"/>
-    <col min="26" max="26" width="15.3984375" customWidth="1"/>
-    <col min="27" max="27" width="14.86328125" customWidth="1"/>
-    <col min="28" max="28" width="17.86328125" customWidth="1"/>
-    <col min="29" max="29" width="17.73046875" customWidth="1"/>
+    <col min="21" max="21" width="33.28515625" customWidth="1"/>
+    <col min="22" max="22" width="31.5703125" customWidth="1"/>
+    <col min="23" max="23" width="34.85546875" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" customWidth="1"/>
+    <col min="29" max="29" width="17.7109375" customWidth="1"/>
     <col min="30" max="30" width="21" customWidth="1"/>
-    <col min="31" max="31" width="16.59765625" customWidth="1"/>
-    <col min="32" max="32" width="29.3984375" customWidth="1"/>
-    <col min="33" max="33" width="33.86328125" customWidth="1"/>
-    <col min="34" max="34" width="33.59765625" customWidth="1"/>
+    <col min="31" max="31" width="16.5703125" customWidth="1"/>
+    <col min="32" max="32" width="29.42578125" customWidth="1"/>
+    <col min="33" max="33" width="33.85546875" customWidth="1"/>
+    <col min="34" max="34" width="33.5703125" customWidth="1"/>
     <col min="35" max="35" width="38" customWidth="1"/>
-    <col min="36" max="36" width="21.1328125" customWidth="1"/>
+    <col min="36" max="36" width="21.140625" customWidth="1"/>
     <col min="37" max="37" width="17" customWidth="1"/>
-    <col min="38" max="38" width="21.3984375" customWidth="1"/>
-    <col min="39" max="39" width="25.1328125" customWidth="1"/>
-    <col min="40" max="40" width="29.59765625" customWidth="1"/>
-    <col min="41" max="41" width="26.265625" customWidth="1"/>
+    <col min="38" max="38" width="21.42578125" customWidth="1"/>
+    <col min="39" max="39" width="25.140625" customWidth="1"/>
+    <col min="40" max="40" width="29.5703125" customWidth="1"/>
+    <col min="41" max="41" width="26.28515625" customWidth="1"/>
     <col min="42" max="42" width="24" customWidth="1"/>
-    <col min="43" max="43" width="25.59765625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="47" max="48" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.73046875" style="13" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="12" style="13" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="12" style="13" customWidth="1"/>
-    <col min="53" max="53" width="7.73046875" style="13" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.73046875" style="13" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="7.73046875" style="13" customWidth="1"/>
-    <col min="57" max="57" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7.7109375" style="13" customWidth="1"/>
+    <col min="57" max="57" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="12" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.265625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="25.73046875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="26.73046875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="26.73046875" customWidth="1"/>
-    <col min="67" max="67" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="26.7109375" customWidth="1"/>
+    <col min="67" max="67" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="12" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="31.3984375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="32" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="9" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="10" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="12" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="12" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="94" max="95" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="22" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="12" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="22" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="12" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="22" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="12" bestFit="1" customWidth="1"/>
     <col min="105" max="105" width="22" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="12" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="22" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="12" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="22" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="12" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="22" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="12" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="22" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="119" max="119" width="12" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="22" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="12" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="23" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="13" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="23" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="13" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="23" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="131" max="131" width="13" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="149" max="149" width="7" bestFit="1" customWidth="1"/>
     <col min="150" max="157" width="18" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="159" max="166" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="159" max="166" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1709,12 +1709,24 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="R2" s="3">
+        <v>34</v>
+      </c>
+      <c r="S2" s="3">
+        <v>55</v>
+      </c>
+      <c r="T2" s="3">
+        <v>74</v>
+      </c>
+      <c r="U2" s="3">
+        <v>104</v>
+      </c>
+      <c r="V2" s="3">
+        <v>132</v>
+      </c>
+      <c r="W2" s="3">
+        <v>145</v>
+      </c>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
@@ -1859,7 +1871,7 @@
       <c r="FI2" s="6"/>
       <c r="FJ2" s="6"/>
     </row>
-    <row r="3" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1890,12 +1902,24 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
+      <c r="R3" s="3">
+        <v>34</v>
+      </c>
+      <c r="S3" s="3">
+        <v>55</v>
+      </c>
+      <c r="T3" s="3">
+        <v>74</v>
+      </c>
+      <c r="U3" s="3">
+        <v>104</v>
+      </c>
+      <c r="V3" s="3">
+        <v>132</v>
+      </c>
+      <c r="W3" s="3">
+        <v>145</v>
+      </c>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
@@ -2101,7 +2125,7 @@
       <c r="FI3" s="6"/>
       <c r="FJ3" s="6"/>
     </row>
-    <row r="4" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -2136,12 +2160,24 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
+      <c r="R4" s="3">
+        <v>34</v>
+      </c>
+      <c r="S4" s="3">
+        <v>55</v>
+      </c>
+      <c r="T4" s="3">
+        <v>74</v>
+      </c>
+      <c r="U4" s="3">
+        <v>104</v>
+      </c>
+      <c r="V4" s="3">
+        <v>132</v>
+      </c>
+      <c r="W4" s="3">
+        <v>145</v>
+      </c>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
@@ -2268,7 +2304,7 @@
       <c r="FI4" s="6"/>
       <c r="FJ4" s="6"/>
     </row>
-    <row r="5" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2303,12 +2339,24 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
+      <c r="R5" s="3">
+        <v>34</v>
+      </c>
+      <c r="S5" s="3">
+        <v>55</v>
+      </c>
+      <c r="T5" s="3">
+        <v>74</v>
+      </c>
+      <c r="U5" s="3">
+        <v>104</v>
+      </c>
+      <c r="V5" s="3">
+        <v>132</v>
+      </c>
+      <c r="W5" s="3">
+        <v>145</v>
+      </c>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
@@ -2435,7 +2483,7 @@
       <c r="FI5" s="6"/>
       <c r="FJ5" s="6"/>
     </row>
-    <row r="6" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2476,11 +2524,21 @@
       <c r="R6" s="3">
         <v>34</v>
       </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
+      <c r="S6" s="3">
+        <v>55</v>
+      </c>
+      <c r="T6" s="3">
+        <v>74</v>
+      </c>
+      <c r="U6" s="3">
+        <v>104</v>
+      </c>
+      <c r="V6" s="3">
+        <v>132</v>
+      </c>
+      <c r="W6" s="3">
+        <v>145</v>
+      </c>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
@@ -2642,7 +2700,7 @@
       <c r="FI6" s="6"/>
       <c r="FJ6" s="6"/>
     </row>
-    <row r="7" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2673,12 +2731,24 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
+      <c r="R7" s="3">
+        <v>34</v>
+      </c>
+      <c r="S7" s="3">
+        <v>55</v>
+      </c>
+      <c r="T7" s="3">
+        <v>74</v>
+      </c>
+      <c r="U7" s="3">
+        <v>104</v>
+      </c>
+      <c r="V7" s="3">
+        <v>132</v>
+      </c>
+      <c r="W7" s="3">
+        <v>145</v>
+      </c>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
@@ -2882,7 +2952,7 @@
       <c r="FI7" s="6"/>
       <c r="FJ7" s="6"/>
     </row>
-    <row r="8" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2917,12 +2987,24 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
+      <c r="R8" s="3">
+        <v>34</v>
+      </c>
+      <c r="S8" s="3">
+        <v>55</v>
+      </c>
+      <c r="T8" s="3">
+        <v>74</v>
+      </c>
+      <c r="U8" s="3">
+        <v>104</v>
+      </c>
+      <c r="V8" s="3">
+        <v>132</v>
+      </c>
+      <c r="W8" s="3">
+        <v>145</v>
+      </c>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
@@ -3053,7 +3135,7 @@
       <c r="FI8" s="6"/>
       <c r="FJ8" s="6"/>
     </row>
-    <row r="9" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3088,12 +3170,24 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
+      <c r="R9" s="3">
+        <v>34</v>
+      </c>
+      <c r="S9" s="3">
+        <v>55</v>
+      </c>
+      <c r="T9" s="3">
+        <v>74</v>
+      </c>
+      <c r="U9" s="3">
+        <v>104</v>
+      </c>
+      <c r="V9" s="3">
+        <v>132</v>
+      </c>
+      <c r="W9" s="3">
+        <v>145</v>
+      </c>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
@@ -3224,7 +3318,7 @@
       <c r="FI9" s="6"/>
       <c r="FJ9" s="6"/>
     </row>
-    <row r="10" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3259,12 +3353,24 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
+      <c r="R10" s="3">
+        <v>34</v>
+      </c>
+      <c r="S10" s="3">
+        <v>55</v>
+      </c>
+      <c r="T10" s="3">
+        <v>74</v>
+      </c>
+      <c r="U10" s="3">
+        <v>104</v>
+      </c>
+      <c r="V10" s="3">
+        <v>132</v>
+      </c>
+      <c r="W10" s="3">
+        <v>145</v>
+      </c>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
@@ -3393,7 +3499,7 @@
       <c r="FI10" s="6"/>
       <c r="FJ10" s="6"/>
     </row>
-    <row r="11" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -3431,14 +3537,24 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="R11" s="3">
+        <v>34</v>
+      </c>
       <c r="S11" s="3">
         <v>55</v>
       </c>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
+      <c r="T11" s="3">
+        <v>74</v>
+      </c>
+      <c r="U11" s="3">
+        <v>104</v>
+      </c>
+      <c r="V11" s="3">
+        <v>132</v>
+      </c>
+      <c r="W11" s="3">
+        <v>145</v>
+      </c>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
@@ -3623,7 +3739,7 @@
       <c r="FI11" s="6"/>
       <c r="FJ11" s="6"/>
     </row>
-    <row r="12" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -3658,12 +3774,24 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
+      <c r="R12" s="3">
+        <v>34</v>
+      </c>
+      <c r="S12" s="3">
+        <v>55</v>
+      </c>
+      <c r="T12" s="3">
+        <v>74</v>
+      </c>
+      <c r="U12" s="3">
+        <v>104</v>
+      </c>
+      <c r="V12" s="3">
+        <v>132</v>
+      </c>
+      <c r="W12" s="3">
+        <v>145</v>
+      </c>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
@@ -3803,7 +3931,7 @@
       <c r="FI12" s="6"/>
       <c r="FJ12" s="6"/>
     </row>
-    <row r="13" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3836,12 +3964,24 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
+      <c r="R13" s="3">
+        <v>34</v>
+      </c>
+      <c r="S13" s="3">
+        <v>55</v>
+      </c>
+      <c r="T13" s="3">
+        <v>74</v>
+      </c>
+      <c r="U13" s="3">
+        <v>104</v>
+      </c>
+      <c r="V13" s="3">
+        <v>132</v>
+      </c>
+      <c r="W13" s="3">
+        <v>145</v>
+      </c>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
@@ -4035,7 +4175,7 @@
       <c r="FI13" s="6"/>
       <c r="FJ13" s="6"/>
     </row>
-    <row r="14" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -4066,12 +4206,24 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
+      <c r="R14" s="3">
+        <v>34</v>
+      </c>
+      <c r="S14" s="3">
+        <v>55</v>
+      </c>
+      <c r="T14" s="3">
+        <v>74</v>
+      </c>
+      <c r="U14" s="3">
+        <v>104</v>
+      </c>
+      <c r="V14" s="3">
+        <v>132</v>
+      </c>
+      <c r="W14" s="3">
+        <v>145</v>
+      </c>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
@@ -4248,7 +4400,7 @@
       <c r="FI14" s="6"/>
       <c r="FJ14" s="6"/>
     </row>
-    <row r="15" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4290,14 +4442,24 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
+      <c r="R15" s="3">
+        <v>34</v>
+      </c>
+      <c r="S15" s="3">
+        <v>55</v>
+      </c>
       <c r="T15" s="3">
         <v>74</v>
       </c>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
+      <c r="U15" s="3">
+        <v>104</v>
+      </c>
+      <c r="V15" s="3">
+        <v>132</v>
+      </c>
+      <c r="W15" s="3">
+        <v>145</v>
+      </c>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
@@ -4430,7 +4592,7 @@
       <c r="FI15" s="6"/>
       <c r="FJ15" s="6"/>
     </row>
-    <row r="16" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -4465,12 +4627,24 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
+      <c r="R16" s="3">
+        <v>34</v>
+      </c>
+      <c r="S16" s="3">
+        <v>55</v>
+      </c>
+      <c r="T16" s="3">
+        <v>74</v>
+      </c>
+      <c r="U16" s="3">
+        <v>104</v>
+      </c>
+      <c r="V16" s="3">
+        <v>132</v>
+      </c>
+      <c r="W16" s="3">
+        <v>145</v>
+      </c>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
@@ -4615,7 +4789,7 @@
       <c r="FI16" s="6"/>
       <c r="FJ16" s="6"/>
     </row>
-    <row r="17" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -4644,12 +4818,24 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
+      <c r="R17" s="3">
+        <v>34</v>
+      </c>
+      <c r="S17" s="3">
+        <v>55</v>
+      </c>
+      <c r="T17" s="3">
+        <v>74</v>
+      </c>
+      <c r="U17" s="3">
+        <v>104</v>
+      </c>
+      <c r="V17" s="3">
+        <v>132</v>
+      </c>
+      <c r="W17" s="3">
+        <v>145</v>
+      </c>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
@@ -4851,7 +5037,7 @@
       <c r="FI17" s="6"/>
       <c r="FJ17" s="6"/>
     </row>
-    <row r="18" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -4882,12 +5068,24 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
+      <c r="R18" s="3">
+        <v>34</v>
+      </c>
+      <c r="S18" s="3">
+        <v>55</v>
+      </c>
+      <c r="T18" s="3">
+        <v>74</v>
+      </c>
+      <c r="U18" s="3">
+        <v>104</v>
+      </c>
+      <c r="V18" s="3">
+        <v>132</v>
+      </c>
+      <c r="W18" s="3">
+        <v>145</v>
+      </c>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
@@ -5105,7 +5303,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -5136,12 +5334,24 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
+      <c r="R19" s="3">
+        <v>34</v>
+      </c>
+      <c r="S19" s="3">
+        <v>55</v>
+      </c>
+      <c r="T19" s="3">
+        <v>74</v>
+      </c>
+      <c r="U19" s="3">
+        <v>104</v>
+      </c>
+      <c r="V19" s="3">
+        <v>132</v>
+      </c>
+      <c r="W19" s="3">
+        <v>145</v>
+      </c>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
@@ -5353,7 +5563,7 @@
       <c r="FI19" s="6"/>
       <c r="FJ19" s="6"/>
     </row>
-    <row r="20" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -5384,12 +5594,24 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
+      <c r="R20" s="3">
+        <v>34</v>
+      </c>
+      <c r="S20" s="3">
+        <v>55</v>
+      </c>
+      <c r="T20" s="3">
+        <v>74</v>
+      </c>
+      <c r="U20" s="3">
+        <v>104</v>
+      </c>
+      <c r="V20" s="3">
+        <v>132</v>
+      </c>
+      <c r="W20" s="3">
+        <v>145</v>
+      </c>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
@@ -5565,7 +5787,7 @@
       <c r="FI20" s="6"/>
       <c r="FJ20" s="6"/>
     </row>
-    <row r="21" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -5603,14 +5825,24 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
+      <c r="R21" s="3">
+        <v>34</v>
+      </c>
+      <c r="S21" s="3">
+        <v>55</v>
+      </c>
+      <c r="T21" s="3">
+        <v>74</v>
+      </c>
       <c r="U21" s="3">
         <v>104</v>
       </c>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
+      <c r="V21" s="3">
+        <v>132</v>
+      </c>
+      <c r="W21" s="3">
+        <v>145</v>
+      </c>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
@@ -5759,7 +5991,7 @@
       <c r="FI21" s="6"/>
       <c r="FJ21" s="6"/>
     </row>
-    <row r="22" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -5790,12 +6022,24 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
+      <c r="R22" s="3">
+        <v>34</v>
+      </c>
+      <c r="S22" s="3">
+        <v>55</v>
+      </c>
+      <c r="T22" s="3">
+        <v>74</v>
+      </c>
+      <c r="U22" s="3">
+        <v>104</v>
+      </c>
+      <c r="V22" s="3">
+        <v>132</v>
+      </c>
+      <c r="W22" s="3">
+        <v>145</v>
+      </c>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
@@ -5944,7 +6188,7 @@
       <c r="FI22" s="6"/>
       <c r="FJ22" s="6"/>
     </row>
-    <row r="23" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -5977,12 +6221,24 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
+      <c r="R23" s="3">
+        <v>34</v>
+      </c>
+      <c r="S23" s="3">
+        <v>55</v>
+      </c>
+      <c r="T23" s="3">
+        <v>74</v>
+      </c>
+      <c r="U23" s="3">
+        <v>104</v>
+      </c>
+      <c r="V23" s="3">
+        <v>132</v>
+      </c>
+      <c r="W23" s="3">
+        <v>145</v>
+      </c>
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
@@ -6196,7 +6452,7 @@
       <c r="FI23" s="6"/>
       <c r="FJ23" s="6"/>
     </row>
-    <row r="24" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -6227,12 +6483,24 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
+      <c r="R24" s="3">
+        <v>34</v>
+      </c>
+      <c r="S24" s="3">
+        <v>55</v>
+      </c>
+      <c r="T24" s="3">
+        <v>74</v>
+      </c>
+      <c r="U24" s="3">
+        <v>104</v>
+      </c>
+      <c r="V24" s="3">
+        <v>132</v>
+      </c>
+      <c r="W24" s="3">
+        <v>145</v>
+      </c>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
@@ -6381,7 +6649,7 @@
       <c r="FI24" s="6"/>
       <c r="FJ24" s="6"/>
     </row>
-    <row r="25" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -6419,14 +6687,24 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
+      <c r="R25" s="3">
+        <v>34</v>
+      </c>
+      <c r="S25" s="3">
+        <v>55</v>
+      </c>
+      <c r="T25" s="3">
+        <v>74</v>
+      </c>
+      <c r="U25" s="3">
+        <v>104</v>
+      </c>
       <c r="V25" s="3">
         <v>132</v>
       </c>
-      <c r="W25" s="3"/>
+      <c r="W25" s="3">
+        <v>145</v>
+      </c>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
@@ -6577,7 +6855,7 @@
       <c r="FI25" s="6"/>
       <c r="FJ25" s="6"/>
     </row>
-    <row r="26" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6608,12 +6886,24 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
+      <c r="R26" s="3">
+        <v>34</v>
+      </c>
+      <c r="S26" s="3">
+        <v>55</v>
+      </c>
+      <c r="T26" s="3">
+        <v>74</v>
+      </c>
+      <c r="U26" s="3">
+        <v>104</v>
+      </c>
+      <c r="V26" s="3">
+        <v>132</v>
+      </c>
+      <c r="W26" s="3">
+        <v>145</v>
+      </c>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
@@ -6762,7 +7052,7 @@
       <c r="FI26" s="6"/>
       <c r="FJ26" s="6"/>
     </row>
-    <row r="27" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -6793,11 +7083,21 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
+      <c r="R27" s="3">
+        <v>34</v>
+      </c>
+      <c r="S27" s="3">
+        <v>55</v>
+      </c>
+      <c r="T27" s="3">
+        <v>74</v>
+      </c>
+      <c r="U27" s="3">
+        <v>104</v>
+      </c>
+      <c r="V27" s="3">
+        <v>132</v>
+      </c>
       <c r="W27" s="3">
         <v>145</v>
       </c>
@@ -6961,7 +7261,7 @@
       <c r="FI27" s="6"/>
       <c r="FJ27" s="6"/>
     </row>
-    <row r="28" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -6999,12 +7299,24 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
+      <c r="R28" s="3">
+        <v>34</v>
+      </c>
+      <c r="S28" s="3">
+        <v>55</v>
+      </c>
+      <c r="T28" s="3">
+        <v>74</v>
+      </c>
+      <c r="U28" s="3">
+        <v>104</v>
+      </c>
+      <c r="V28" s="3">
+        <v>132</v>
+      </c>
+      <c r="W28" s="3">
+        <v>145</v>
+      </c>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
@@ -7149,7 +7461,7 @@
       <c r="FI28" s="6"/>
       <c r="FJ28" s="6"/>
     </row>
-    <row r="29" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -7187,12 +7499,24 @@
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
+      <c r="R29" s="3">
+        <v>34</v>
+      </c>
+      <c r="S29" s="3">
+        <v>55</v>
+      </c>
+      <c r="T29" s="3">
+        <v>81</v>
+      </c>
+      <c r="U29" s="3">
+        <v>104</v>
+      </c>
+      <c r="V29" s="3">
+        <v>132</v>
+      </c>
+      <c r="W29" s="3">
+        <v>145</v>
+      </c>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
@@ -7337,7 +7661,7 @@
       <c r="FI29" s="6"/>
       <c r="FJ29" s="6"/>
     </row>
-    <row r="30" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -7368,12 +7692,24 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
+      <c r="R30" s="3">
+        <v>34</v>
+      </c>
+      <c r="S30" s="3">
+        <v>55</v>
+      </c>
+      <c r="T30" s="3">
+        <v>81</v>
+      </c>
+      <c r="U30" s="3">
+        <v>104</v>
+      </c>
+      <c r="V30" s="3">
+        <v>132</v>
+      </c>
+      <c r="W30" s="3">
+        <v>145</v>
+      </c>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
@@ -7571,7 +7907,7 @@
       <c r="FI30" s="6"/>
       <c r="FJ30" s="6"/>
     </row>
-    <row r="31" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -7606,12 +7942,24 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
+      <c r="R31" s="3">
+        <v>34</v>
+      </c>
+      <c r="S31" s="3">
+        <v>55</v>
+      </c>
+      <c r="T31" s="3">
+        <v>81</v>
+      </c>
+      <c r="U31" s="3">
+        <v>104</v>
+      </c>
+      <c r="V31" s="3">
+        <v>132</v>
+      </c>
+      <c r="W31" s="3">
+        <v>145</v>
+      </c>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
@@ -7752,7 +8100,7 @@
       <c r="FI31" s="6"/>
       <c r="FJ31" s="6"/>
     </row>
-    <row r="32" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -7787,12 +8135,24 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
+      <c r="R32" s="3">
+        <v>34</v>
+      </c>
+      <c r="S32" s="3">
+        <v>55</v>
+      </c>
+      <c r="T32" s="3">
+        <v>81</v>
+      </c>
+      <c r="U32" s="3">
+        <v>104</v>
+      </c>
+      <c r="V32" s="3">
+        <v>132</v>
+      </c>
+      <c r="W32" s="3">
+        <v>145</v>
+      </c>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
@@ -7933,7 +8293,7 @@
       <c r="FI32" s="6"/>
       <c r="FJ32" s="6"/>
     </row>
-    <row r="33" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -7974,11 +8334,21 @@
       <c r="R33" s="3">
         <v>34</v>
       </c>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
+      <c r="S33" s="3">
+        <v>55</v>
+      </c>
+      <c r="T33" s="3">
+        <v>81</v>
+      </c>
+      <c r="U33" s="3">
+        <v>104</v>
+      </c>
+      <c r="V33" s="3">
+        <v>132</v>
+      </c>
+      <c r="W33" s="3">
+        <v>145</v>
+      </c>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
@@ -8156,7 +8526,7 @@
       <c r="FI33" s="6"/>
       <c r="FJ33" s="6"/>
     </row>
-    <row r="34" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -8191,12 +8561,24 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
+      <c r="R34" s="3">
+        <v>34</v>
+      </c>
+      <c r="S34" s="3">
+        <v>55</v>
+      </c>
+      <c r="T34" s="3">
+        <v>81</v>
+      </c>
+      <c r="U34" s="3">
+        <v>104</v>
+      </c>
+      <c r="V34" s="3">
+        <v>132</v>
+      </c>
+      <c r="W34" s="3">
+        <v>145</v>
+      </c>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
@@ -8336,7 +8718,7 @@
       <c r="FI34" s="6"/>
       <c r="FJ34" s="6"/>
     </row>
-    <row r="35" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -8371,12 +8753,24 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
+      <c r="R35" s="3">
+        <v>34</v>
+      </c>
+      <c r="S35" s="3">
+        <v>55</v>
+      </c>
+      <c r="T35" s="3">
+        <v>81</v>
+      </c>
+      <c r="U35" s="3">
+        <v>104</v>
+      </c>
+      <c r="V35" s="3">
+        <v>132</v>
+      </c>
+      <c r="W35" s="3">
+        <v>145</v>
+      </c>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
@@ -8520,7 +8914,7 @@
       <c r="FI35" s="6"/>
       <c r="FJ35" s="6"/>
     </row>
-    <row r="36" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -8558,14 +8952,24 @@
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
+      <c r="R36" s="3">
+        <v>34</v>
+      </c>
       <c r="S36" s="3">
         <v>55</v>
       </c>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
+      <c r="T36" s="3">
+        <v>81</v>
+      </c>
+      <c r="U36" s="3">
+        <v>104</v>
+      </c>
+      <c r="V36" s="3">
+        <v>132</v>
+      </c>
+      <c r="W36" s="3">
+        <v>145</v>
+      </c>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
@@ -8766,7 +9170,7 @@
       <c r="FI36" s="6"/>
       <c r="FJ36" s="6"/>
     </row>
-    <row r="37" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -8801,12 +9205,24 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
+      <c r="R37" s="3">
+        <v>34</v>
+      </c>
+      <c r="S37" s="3">
+        <v>55</v>
+      </c>
+      <c r="T37" s="3">
+        <v>81</v>
+      </c>
+      <c r="U37" s="3">
+        <v>104</v>
+      </c>
+      <c r="V37" s="3">
+        <v>132</v>
+      </c>
+      <c r="W37" s="3">
+        <v>145</v>
+      </c>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
@@ -8943,7 +9359,7 @@
       <c r="FI37" s="6"/>
       <c r="FJ37" s="6"/>
     </row>
-    <row r="38" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -8976,12 +9392,24 @@
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
+      <c r="R38" s="3">
+        <v>34</v>
+      </c>
+      <c r="S38" s="3">
+        <v>55</v>
+      </c>
+      <c r="T38" s="3">
+        <v>81</v>
+      </c>
+      <c r="U38" s="3">
+        <v>104</v>
+      </c>
+      <c r="V38" s="3">
+        <v>132</v>
+      </c>
+      <c r="W38" s="3">
+        <v>145</v>
+      </c>
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
@@ -9170,7 +9598,7 @@
       <c r="FI38" s="6"/>
       <c r="FJ38" s="6"/>
     </row>
-    <row r="39" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -9201,12 +9629,24 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
+      <c r="R39" s="3">
+        <v>34</v>
+      </c>
+      <c r="S39" s="3">
+        <v>55</v>
+      </c>
+      <c r="T39" s="3">
+        <v>81</v>
+      </c>
+      <c r="U39" s="3">
+        <v>104</v>
+      </c>
+      <c r="V39" s="3">
+        <v>132</v>
+      </c>
+      <c r="W39" s="3">
+        <v>145</v>
+      </c>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
@@ -9397,7 +9837,7 @@
       <c r="FI39" s="6"/>
       <c r="FJ39" s="6"/>
     </row>
-    <row r="40" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -9432,12 +9872,24 @@
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
+      <c r="R40" s="3">
+        <v>34</v>
+      </c>
+      <c r="S40" s="3">
+        <v>55</v>
+      </c>
+      <c r="T40" s="3">
+        <v>81</v>
+      </c>
+      <c r="U40" s="3">
+        <v>104</v>
+      </c>
+      <c r="V40" s="3">
+        <v>132</v>
+      </c>
+      <c r="W40" s="3">
+        <v>145</v>
+      </c>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
@@ -9582,7 +10034,7 @@
       <c r="FI40" s="6"/>
       <c r="FJ40" s="6"/>
     </row>
-    <row r="41" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -9624,14 +10076,24 @@
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
+      <c r="R41" s="3">
+        <v>34</v>
+      </c>
+      <c r="S41" s="3">
+        <v>55</v>
+      </c>
       <c r="T41" s="3">
         <v>81</v>
       </c>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
+      <c r="U41" s="3">
+        <v>104</v>
+      </c>
+      <c r="V41" s="3">
+        <v>132</v>
+      </c>
+      <c r="W41" s="3">
+        <v>145</v>
+      </c>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
@@ -9776,7 +10238,7 @@
       <c r="FI41" s="6"/>
       <c r="FJ41" s="6"/>
     </row>
-    <row r="42" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -9805,12 +10267,24 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
+      <c r="R42" s="3">
+        <v>34</v>
+      </c>
+      <c r="S42" s="3">
+        <v>55</v>
+      </c>
+      <c r="T42" s="3">
+        <v>81</v>
+      </c>
+      <c r="U42" s="3">
+        <v>104</v>
+      </c>
+      <c r="V42" s="3">
+        <v>132</v>
+      </c>
+      <c r="W42" s="3">
+        <v>145</v>
+      </c>
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
@@ -10012,7 +10486,7 @@
       <c r="FI42" s="6"/>
       <c r="FJ42" s="6"/>
     </row>
-    <row r="43" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -10043,12 +10517,24 @@
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
+      <c r="R43" s="3">
+        <v>34</v>
+      </c>
+      <c r="S43" s="3">
+        <v>55</v>
+      </c>
+      <c r="T43" s="3">
+        <v>81</v>
+      </c>
+      <c r="U43" s="3">
+        <v>104</v>
+      </c>
+      <c r="V43" s="3">
+        <v>132</v>
+      </c>
+      <c r="W43" s="3">
+        <v>145</v>
+      </c>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
@@ -10246,7 +10732,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -10277,12 +10763,24 @@
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
+      <c r="R44" s="3">
+        <v>34</v>
+      </c>
+      <c r="S44" s="3">
+        <v>55</v>
+      </c>
+      <c r="T44" s="3">
+        <v>81</v>
+      </c>
+      <c r="U44" s="3">
+        <v>104</v>
+      </c>
+      <c r="V44" s="3">
+        <v>132</v>
+      </c>
+      <c r="W44" s="3">
+        <v>145</v>
+      </c>
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
@@ -10484,7 +10982,7 @@
       <c r="FI44" s="6"/>
       <c r="FJ44" s="6"/>
     </row>
-    <row r="45" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -10515,12 +11013,24 @@
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
+      <c r="R45" s="3">
+        <v>34</v>
+      </c>
+      <c r="S45" s="3">
+        <v>55</v>
+      </c>
+      <c r="T45" s="3">
+        <v>81</v>
+      </c>
+      <c r="U45" s="3">
+        <v>104</v>
+      </c>
+      <c r="V45" s="3">
+        <v>132</v>
+      </c>
+      <c r="W45" s="3">
+        <v>145</v>
+      </c>
       <c r="X45" s="6"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
@@ -10711,7 +11221,7 @@
       <c r="FI45" s="6"/>
       <c r="FJ45" s="6"/>
     </row>
-    <row r="46" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -10749,14 +11259,24 @@
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
+      <c r="R46" s="3">
+        <v>34</v>
+      </c>
+      <c r="S46" s="3">
+        <v>55</v>
+      </c>
+      <c r="T46" s="3">
+        <v>81</v>
+      </c>
       <c r="U46" s="3">
         <v>104</v>
       </c>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
+      <c r="V46" s="3">
+        <v>132</v>
+      </c>
+      <c r="W46" s="3">
+        <v>145</v>
+      </c>
       <c r="X46" s="6"/>
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
@@ -10905,7 +11425,7 @@
       <c r="FI46" s="6"/>
       <c r="FJ46" s="6"/>
     </row>
-    <row r="47" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -10936,12 +11456,24 @@
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
+      <c r="R47" s="3">
+        <v>34</v>
+      </c>
+      <c r="S47" s="3">
+        <v>55</v>
+      </c>
+      <c r="T47" s="3">
+        <v>81</v>
+      </c>
+      <c r="U47" s="3">
+        <v>104</v>
+      </c>
+      <c r="V47" s="3">
+        <v>132</v>
+      </c>
+      <c r="W47" s="3">
+        <v>145</v>
+      </c>
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
@@ -11090,7 +11622,7 @@
       <c r="FI47" s="6"/>
       <c r="FJ47" s="6"/>
     </row>
-    <row r="48" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -11121,12 +11653,24 @@
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
+      <c r="R48" s="3">
+        <v>34</v>
+      </c>
+      <c r="S48" s="3">
+        <v>55</v>
+      </c>
+      <c r="T48" s="3">
+        <v>81</v>
+      </c>
+      <c r="U48" s="3">
+        <v>104</v>
+      </c>
+      <c r="V48" s="3">
+        <v>132</v>
+      </c>
+      <c r="W48" s="3">
+        <v>145</v>
+      </c>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
@@ -11275,7 +11819,7 @@
       <c r="FI48" s="6"/>
       <c r="FJ48" s="6"/>
     </row>
-    <row r="49" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -11308,12 +11852,24 @@
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
+      <c r="R49" s="3">
+        <v>34</v>
+      </c>
+      <c r="S49" s="3">
+        <v>55</v>
+      </c>
+      <c r="T49" s="3">
+        <v>81</v>
+      </c>
+      <c r="U49" s="3">
+        <v>104</v>
+      </c>
+      <c r="V49" s="3">
+        <v>132</v>
+      </c>
+      <c r="W49" s="3">
+        <v>145</v>
+      </c>
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
@@ -11515,7 +12071,7 @@
       <c r="FI49" s="6"/>
       <c r="FJ49" s="6"/>
     </row>
-    <row r="50" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -11546,12 +12102,24 @@
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
+      <c r="R50" s="3">
+        <v>34</v>
+      </c>
+      <c r="S50" s="3">
+        <v>55</v>
+      </c>
+      <c r="T50" s="3">
+        <v>81</v>
+      </c>
+      <c r="U50" s="3">
+        <v>104</v>
+      </c>
+      <c r="V50" s="3">
+        <v>132</v>
+      </c>
+      <c r="W50" s="3">
+        <v>145</v>
+      </c>
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
@@ -11700,7 +12268,7 @@
       <c r="FI50" s="6"/>
       <c r="FJ50" s="6"/>
     </row>
-    <row r="51" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -11738,14 +12306,24 @@
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
+      <c r="R51" s="3">
+        <v>34</v>
+      </c>
+      <c r="S51" s="3">
+        <v>55</v>
+      </c>
+      <c r="T51" s="3">
+        <v>81</v>
+      </c>
+      <c r="U51" s="3">
+        <v>104</v>
+      </c>
       <c r="V51" s="3">
         <v>132</v>
       </c>
-      <c r="W51" s="3"/>
+      <c r="W51" s="3">
+        <v>145</v>
+      </c>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
@@ -11894,7 +12472,7 @@
       <c r="FI51" s="6"/>
       <c r="FJ51" s="6"/>
     </row>
-    <row r="52" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -11925,12 +12503,24 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
+      <c r="R52" s="3">
+        <v>34</v>
+      </c>
+      <c r="S52" s="3">
+        <v>55</v>
+      </c>
+      <c r="T52" s="3">
+        <v>81</v>
+      </c>
+      <c r="U52" s="3">
+        <v>104</v>
+      </c>
+      <c r="V52" s="3">
+        <v>132</v>
+      </c>
+      <c r="W52" s="3">
+        <v>145</v>
+      </c>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
@@ -12079,7 +12669,7 @@
       <c r="FI52" s="6"/>
       <c r="FJ52" s="6"/>
     </row>
-    <row r="53" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -12110,12 +12700,24 @@
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
+      <c r="R53" s="3">
+        <v>34</v>
+      </c>
+      <c r="S53" s="3">
+        <v>55</v>
+      </c>
+      <c r="T53" s="3">
+        <v>81</v>
+      </c>
+      <c r="U53" s="3">
+        <v>104</v>
+      </c>
+      <c r="V53" s="3">
+        <v>132</v>
+      </c>
+      <c r="W53" s="3">
+        <v>145</v>
+      </c>
       <c r="X53" s="6"/>
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
@@ -12276,7 +12878,7 @@
       <c r="FI53" s="6"/>
       <c r="FJ53" s="6"/>
     </row>
-    <row r="54" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -12314,12 +12916,24 @@
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
+      <c r="R54" s="3">
+        <v>34</v>
+      </c>
+      <c r="S54" s="3">
+        <v>55</v>
+      </c>
+      <c r="T54" s="3">
+        <v>81</v>
+      </c>
+      <c r="U54" s="3">
+        <v>104</v>
+      </c>
+      <c r="V54" s="3">
+        <v>132</v>
+      </c>
+      <c r="W54" s="3">
+        <v>145</v>
+      </c>
       <c r="X54" s="6"/>
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
@@ -12464,7 +13078,7 @@
       <c r="FI54" s="6"/>
       <c r="FJ54" s="6"/>
     </row>
-    <row r="55" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -12502,12 +13116,24 @@
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
+      <c r="R55" s="3">
+        <v>34</v>
+      </c>
+      <c r="S55" s="3">
+        <v>55</v>
+      </c>
+      <c r="T55" s="3">
+        <v>74</v>
+      </c>
+      <c r="U55" s="3">
+        <v>104</v>
+      </c>
+      <c r="V55" s="3">
+        <v>118</v>
+      </c>
+      <c r="W55" s="3">
+        <v>145</v>
+      </c>
       <c r="X55" s="6"/>
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
@@ -12652,7 +13278,7 @@
       <c r="FI55" s="6"/>
       <c r="FJ55" s="6"/>
     </row>
-    <row r="56" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -12683,12 +13309,24 @@
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
+      <c r="R56" s="3">
+        <v>34</v>
+      </c>
+      <c r="S56" s="3">
+        <v>55</v>
+      </c>
+      <c r="T56" s="3">
+        <v>74</v>
+      </c>
+      <c r="U56" s="3">
+        <v>104</v>
+      </c>
+      <c r="V56" s="3">
+        <v>118</v>
+      </c>
+      <c r="W56" s="3">
+        <v>145</v>
+      </c>
       <c r="X56" s="6"/>
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
@@ -12890,7 +13528,7 @@
       <c r="FI56" s="6"/>
       <c r="FJ56" s="6"/>
     </row>
-    <row r="57" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -12925,12 +13563,24 @@
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
+      <c r="R57" s="3">
+        <v>34</v>
+      </c>
+      <c r="S57" s="3">
+        <v>55</v>
+      </c>
+      <c r="T57" s="3">
+        <v>74</v>
+      </c>
+      <c r="U57" s="3">
+        <v>104</v>
+      </c>
+      <c r="V57" s="3">
+        <v>118</v>
+      </c>
+      <c r="W57" s="3">
+        <v>145</v>
+      </c>
       <c r="X57" s="6"/>
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
@@ -13075,7 +13725,7 @@
       <c r="FI57" s="6"/>
       <c r="FJ57" s="6"/>
     </row>
-    <row r="58" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -13110,12 +13760,24 @@
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
+      <c r="R58" s="3">
+        <v>34</v>
+      </c>
+      <c r="S58" s="3">
+        <v>55</v>
+      </c>
+      <c r="T58" s="3">
+        <v>74</v>
+      </c>
+      <c r="U58" s="3">
+        <v>104</v>
+      </c>
+      <c r="V58" s="3">
+        <v>118</v>
+      </c>
+      <c r="W58" s="3">
+        <v>145</v>
+      </c>
       <c r="X58" s="6"/>
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
@@ -13260,7 +13922,7 @@
       <c r="FI58" s="6"/>
       <c r="FJ58" s="6"/>
     </row>
-    <row r="59" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -13301,11 +13963,21 @@
       <c r="R59" s="3">
         <v>34</v>
       </c>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
+      <c r="S59" s="3">
+        <v>55</v>
+      </c>
+      <c r="T59" s="3">
+        <v>74</v>
+      </c>
+      <c r="U59" s="3">
+        <v>104</v>
+      </c>
+      <c r="V59" s="3">
+        <v>118</v>
+      </c>
+      <c r="W59" s="3">
+        <v>145</v>
+      </c>
       <c r="X59" s="6"/>
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
@@ -13482,7 +14154,7 @@
       <c r="FI59" s="6"/>
       <c r="FJ59" s="6"/>
     </row>
-    <row r="60" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -13517,12 +14189,24 @@
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
+      <c r="R60" s="3">
+        <v>34</v>
+      </c>
+      <c r="S60" s="3">
+        <v>55</v>
+      </c>
+      <c r="T60" s="3">
+        <v>74</v>
+      </c>
+      <c r="U60" s="3">
+        <v>104</v>
+      </c>
+      <c r="V60" s="3">
+        <v>118</v>
+      </c>
+      <c r="W60" s="3">
+        <v>145</v>
+      </c>
       <c r="X60" s="6"/>
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
@@ -13661,7 +14345,7 @@
       <c r="FI60" s="6"/>
       <c r="FJ60" s="6"/>
     </row>
-    <row r="61" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -13696,12 +14380,24 @@
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
+      <c r="R61" s="3">
+        <v>34</v>
+      </c>
+      <c r="S61" s="3">
+        <v>55</v>
+      </c>
+      <c r="T61" s="3">
+        <v>74</v>
+      </c>
+      <c r="U61" s="3">
+        <v>104</v>
+      </c>
+      <c r="V61" s="3">
+        <v>118</v>
+      </c>
+      <c r="W61" s="3">
+        <v>145</v>
+      </c>
       <c r="X61" s="6"/>
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
@@ -13840,7 +14536,7 @@
       <c r="FI61" s="6"/>
       <c r="FJ61" s="6"/>
     </row>
-    <row r="62" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -13878,14 +14574,24 @@
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
+      <c r="R62" s="3">
+        <v>34</v>
+      </c>
       <c r="S62" s="3">
         <v>55</v>
       </c>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
+      <c r="T62" s="3">
+        <v>74</v>
+      </c>
+      <c r="U62" s="3">
+        <v>104</v>
+      </c>
+      <c r="V62" s="3">
+        <v>118</v>
+      </c>
+      <c r="W62" s="3">
+        <v>145</v>
+      </c>
       <c r="X62" s="6"/>
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
@@ -14081,7 +14787,7 @@
       <c r="FI62" s="6"/>
       <c r="FJ62" s="6"/>
     </row>
-    <row r="63" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -14116,12 +14822,24 @@
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
+      <c r="R63" s="3">
+        <v>34</v>
+      </c>
+      <c r="S63" s="3">
+        <v>55</v>
+      </c>
+      <c r="T63" s="3">
+        <v>74</v>
+      </c>
+      <c r="U63" s="3">
+        <v>104</v>
+      </c>
+      <c r="V63" s="3">
+        <v>118</v>
+      </c>
+      <c r="W63" s="3">
+        <v>145</v>
+      </c>
       <c r="X63" s="6"/>
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
@@ -14253,7 +14971,7 @@
       <c r="FI63" s="6"/>
       <c r="FJ63" s="6"/>
     </row>
-    <row r="64" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -14286,12 +15004,24 @@
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
+      <c r="R64" s="3">
+        <v>34</v>
+      </c>
+      <c r="S64" s="3">
+        <v>55</v>
+      </c>
+      <c r="T64" s="3">
+        <v>74</v>
+      </c>
+      <c r="U64" s="3">
+        <v>104</v>
+      </c>
+      <c r="V64" s="3">
+        <v>118</v>
+      </c>
+      <c r="W64" s="3">
+        <v>145</v>
+      </c>
       <c r="X64" s="6"/>
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
@@ -14480,7 +15210,7 @@
       <c r="FI64" s="6"/>
       <c r="FJ64" s="6"/>
     </row>
-    <row r="65" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -14511,12 +15241,24 @@
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
+      <c r="R65" s="3">
+        <v>34</v>
+      </c>
+      <c r="S65" s="3">
+        <v>55</v>
+      </c>
+      <c r="T65" s="3">
+        <v>74</v>
+      </c>
+      <c r="U65" s="3">
+        <v>104</v>
+      </c>
+      <c r="V65" s="3">
+        <v>118</v>
+      </c>
+      <c r="W65" s="3">
+        <v>145</v>
+      </c>
       <c r="X65" s="6"/>
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
@@ -14707,7 +15449,7 @@
       <c r="FI65" s="6"/>
       <c r="FJ65" s="6"/>
     </row>
-    <row r="66" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -14749,14 +15491,24 @@
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
+      <c r="R66" s="3">
+        <v>34</v>
+      </c>
+      <c r="S66" s="3">
+        <v>55</v>
+      </c>
       <c r="T66" s="3">
         <v>74</v>
       </c>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
+      <c r="U66" s="3">
+        <v>104</v>
+      </c>
+      <c r="V66" s="3">
+        <v>118</v>
+      </c>
+      <c r="W66" s="3">
+        <v>145</v>
+      </c>
       <c r="X66" s="6"/>
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
@@ -14901,7 +15653,7 @@
       <c r="FI66" s="6"/>
       <c r="FJ66" s="6"/>
     </row>
-    <row r="67" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>22</v>
       </c>
@@ -14936,12 +15688,24 @@
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
+      <c r="R67" s="3">
+        <v>34</v>
+      </c>
+      <c r="S67" s="3">
+        <v>55</v>
+      </c>
+      <c r="T67" s="3">
+        <v>74</v>
+      </c>
+      <c r="U67" s="3">
+        <v>104</v>
+      </c>
+      <c r="V67" s="3">
+        <v>118</v>
+      </c>
+      <c r="W67" s="3">
+        <v>145</v>
+      </c>
       <c r="X67" s="6"/>
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
@@ -15086,7 +15850,7 @@
       <c r="FI67" s="6"/>
       <c r="FJ67" s="6"/>
     </row>
-    <row r="68" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -15115,12 +15879,24 @@
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
+      <c r="R68" s="3">
+        <v>34</v>
+      </c>
+      <c r="S68" s="3">
+        <v>55</v>
+      </c>
+      <c r="T68" s="3">
+        <v>74</v>
+      </c>
+      <c r="U68" s="3">
+        <v>104</v>
+      </c>
+      <c r="V68" s="3">
+        <v>118</v>
+      </c>
+      <c r="W68" s="3">
+        <v>145</v>
+      </c>
       <c r="X68" s="6"/>
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
@@ -15322,7 +16098,7 @@
       <c r="FI68" s="6"/>
       <c r="FJ68" s="6"/>
     </row>
-    <row r="69" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -15353,12 +16129,24 @@
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
-      <c r="W69" s="3"/>
+      <c r="R69" s="3">
+        <v>34</v>
+      </c>
+      <c r="S69" s="3">
+        <v>55</v>
+      </c>
+      <c r="T69" s="3">
+        <v>74</v>
+      </c>
+      <c r="U69" s="3">
+        <v>104</v>
+      </c>
+      <c r="V69" s="3">
+        <v>118</v>
+      </c>
+      <c r="W69" s="3">
+        <v>145</v>
+      </c>
       <c r="X69" s="6"/>
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
@@ -15556,7 +16344,7 @@
         <v>8.8749999999999996E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>22</v>
       </c>
@@ -15587,12 +16375,24 @@
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-      <c r="V70" s="3"/>
-      <c r="W70" s="3"/>
+      <c r="R70" s="3">
+        <v>34</v>
+      </c>
+      <c r="S70" s="3">
+        <v>55</v>
+      </c>
+      <c r="T70" s="3">
+        <v>74</v>
+      </c>
+      <c r="U70" s="3">
+        <v>104</v>
+      </c>
+      <c r="V70" s="3">
+        <v>118</v>
+      </c>
+      <c r="W70" s="3">
+        <v>145</v>
+      </c>
       <c r="X70" s="6"/>
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
@@ -15794,7 +16594,7 @@
       <c r="FI70" s="6"/>
       <c r="FJ70" s="6"/>
     </row>
-    <row r="71" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>22</v>
       </c>
@@ -15825,12 +16625,24 @@
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
-      <c r="V71" s="3"/>
-      <c r="W71" s="3"/>
+      <c r="R71" s="3">
+        <v>34</v>
+      </c>
+      <c r="S71" s="3">
+        <v>55</v>
+      </c>
+      <c r="T71" s="3">
+        <v>74</v>
+      </c>
+      <c r="U71" s="3">
+        <v>104</v>
+      </c>
+      <c r="V71" s="3">
+        <v>118</v>
+      </c>
+      <c r="W71" s="3">
+        <v>145</v>
+      </c>
       <c r="X71" s="6"/>
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
@@ -16021,7 +16833,7 @@
       <c r="FI71" s="6"/>
       <c r="FJ71" s="6"/>
     </row>
-    <row r="72" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -16059,14 +16871,24 @@
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
+      <c r="R72" s="3">
+        <v>34</v>
+      </c>
+      <c r="S72" s="3">
+        <v>55</v>
+      </c>
+      <c r="T72" s="3">
+        <v>74</v>
+      </c>
       <c r="U72" s="3">
         <v>104</v>
       </c>
-      <c r="V72" s="3"/>
-      <c r="W72" s="3"/>
+      <c r="V72" s="3">
+        <v>118</v>
+      </c>
+      <c r="W72" s="3">
+        <v>145</v>
+      </c>
       <c r="X72" s="6"/>
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
@@ -16215,7 +17037,7 @@
       <c r="FI72" s="6"/>
       <c r="FJ72" s="6"/>
     </row>
-    <row r="73" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -16246,12 +17068,24 @@
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
-      <c r="W73" s="3"/>
+      <c r="R73" s="3">
+        <v>34</v>
+      </c>
+      <c r="S73" s="3">
+        <v>55</v>
+      </c>
+      <c r="T73" s="3">
+        <v>74</v>
+      </c>
+      <c r="U73" s="3">
+        <v>104</v>
+      </c>
+      <c r="V73" s="3">
+        <v>118</v>
+      </c>
+      <c r="W73" s="3">
+        <v>145</v>
+      </c>
       <c r="X73" s="6"/>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
@@ -16400,7 +17234,7 @@
       <c r="FI73" s="6"/>
       <c r="FJ73" s="6"/>
     </row>
-    <row r="74" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>22</v>
       </c>
@@ -16438,14 +17272,24 @@
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
+      <c r="R74" s="3">
+        <v>34</v>
+      </c>
+      <c r="S74" s="3">
+        <v>55</v>
+      </c>
+      <c r="T74" s="3">
+        <v>74</v>
+      </c>
+      <c r="U74" s="3">
+        <v>104</v>
+      </c>
       <c r="V74" s="3">
         <v>118</v>
       </c>
-      <c r="W74" s="3"/>
+      <c r="W74" s="3">
+        <v>145</v>
+      </c>
       <c r="X74" s="6"/>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
@@ -16594,7 +17438,7 @@
       <c r="FI74" s="6"/>
       <c r="FJ74" s="6"/>
     </row>
-    <row r="75" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>22</v>
       </c>
@@ -16627,12 +17471,24 @@
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
+      <c r="R75" s="3">
+        <v>34</v>
+      </c>
+      <c r="S75" s="3">
+        <v>55</v>
+      </c>
+      <c r="T75" s="3">
+        <v>74</v>
+      </c>
+      <c r="U75" s="3">
+        <v>104</v>
+      </c>
+      <c r="V75" s="3">
+        <v>118</v>
+      </c>
+      <c r="W75" s="3">
+        <v>145</v>
+      </c>
       <c r="X75" s="6"/>
       <c r="Y75" s="6"/>
       <c r="Z75" s="6"/>
@@ -16834,7 +17690,7 @@
       <c r="FI75" s="6"/>
       <c r="FJ75" s="6"/>
     </row>
-    <row r="76" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -16865,12 +17721,24 @@
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
+      <c r="R76" s="3">
+        <v>34</v>
+      </c>
+      <c r="S76" s="3">
+        <v>55</v>
+      </c>
+      <c r="T76" s="3">
+        <v>74</v>
+      </c>
+      <c r="U76" s="3">
+        <v>104</v>
+      </c>
+      <c r="V76" s="3">
+        <v>118</v>
+      </c>
+      <c r="W76" s="3">
+        <v>145</v>
+      </c>
       <c r="X76" s="6"/>
       <c r="Y76" s="6"/>
       <c r="Z76" s="6"/>
@@ -17019,7 +17887,7 @@
       <c r="FI76" s="6"/>
       <c r="FJ76" s="6"/>
     </row>
-    <row r="77" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>22</v>
       </c>
@@ -17050,12 +17918,24 @@
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
+      <c r="R77" s="3">
+        <v>34</v>
+      </c>
+      <c r="S77" s="3">
+        <v>55</v>
+      </c>
+      <c r="T77" s="3">
+        <v>74</v>
+      </c>
+      <c r="U77" s="3">
+        <v>104</v>
+      </c>
+      <c r="V77" s="3">
+        <v>118</v>
+      </c>
+      <c r="W77" s="3">
+        <v>145</v>
+      </c>
       <c r="X77" s="6"/>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
@@ -17204,7 +18084,7 @@
       <c r="FI77" s="6"/>
       <c r="FJ77" s="6"/>
     </row>
-    <row r="78" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -17235,12 +18115,24 @@
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
       <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
+      <c r="R78" s="3">
+        <v>34</v>
+      </c>
+      <c r="S78" s="3">
+        <v>55</v>
+      </c>
+      <c r="T78" s="3">
+        <v>74</v>
+      </c>
+      <c r="U78" s="3">
+        <v>104</v>
+      </c>
+      <c r="V78" s="3">
+        <v>118</v>
+      </c>
+      <c r="W78" s="3">
+        <v>145</v>
+      </c>
       <c r="X78" s="6"/>
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
@@ -17389,7 +18281,7 @@
       <c r="FI78" s="6"/>
       <c r="FJ78" s="6"/>
     </row>
-    <row r="79" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>22</v>
       </c>
@@ -17420,12 +18312,24 @@
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
-      <c r="W79" s="3"/>
+      <c r="R79" s="3">
+        <v>34</v>
+      </c>
+      <c r="S79" s="3">
+        <v>55</v>
+      </c>
+      <c r="T79" s="3">
+        <v>74</v>
+      </c>
+      <c r="U79" s="3">
+        <v>104</v>
+      </c>
+      <c r="V79" s="3">
+        <v>118</v>
+      </c>
+      <c r="W79" s="3">
+        <v>145</v>
+      </c>
       <c r="X79" s="6"/>
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
@@ -17586,7 +18490,7 @@
       <c r="FI79" s="6"/>
       <c r="FJ79" s="6"/>
     </row>
-    <row r="80" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>22</v>
       </c>
@@ -17624,12 +18528,24 @@
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
-      <c r="W80" s="3"/>
+      <c r="R80" s="3">
+        <v>34</v>
+      </c>
+      <c r="S80" s="3">
+        <v>55</v>
+      </c>
+      <c r="T80" s="3">
+        <v>74</v>
+      </c>
+      <c r="U80" s="3">
+        <v>104</v>
+      </c>
+      <c r="V80" s="3">
+        <v>118</v>
+      </c>
+      <c r="W80" s="3">
+        <v>145</v>
+      </c>
       <c r="X80" s="6"/>
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>

--- a/Tests/UnderReview/Cotton/Observed/DouglasDaly21Observed.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/DouglasDaly21Observed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4450B8B-4ED6-4860-A4EC-32E1BF675764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3054C82-2743-4469-B64A-9C6115BE8BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
   </bookViews>
   <sheets>
     <sheet name="CottonObserved" sheetId="1" r:id="rId1"/>
@@ -377,9 +377,6 @@
     <t>dw_OB</t>
   </si>
   <si>
-    <t>Cotton.Fruit.Nconc</t>
-  </si>
-  <si>
     <t>Cotton.Lint.Wt</t>
   </si>
   <si>
@@ -588,6 +585,9 @@
   </si>
   <si>
     <t>Cotton.Leaf.SpecificAreaCanopy</t>
+  </si>
+  <si>
+    <t>Cotton.Fruit.NConc</t>
   </si>
 </sst>
 </file>
@@ -1012,166 +1012,166 @@
   <dimension ref="A1:FJ80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ2" sqref="AQ2"/>
+      <selection pane="bottomRight" activeCell="BI2" sqref="BI2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.86328125" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1328125" customWidth="1"/>
-    <col min="5" max="5" width="37.59765625" customWidth="1"/>
-    <col min="6" max="6" width="13.265625" customWidth="1"/>
-    <col min="7" max="7" width="35.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" customWidth="1"/>
     <col min="10" max="10" width="32" customWidth="1"/>
-    <col min="11" max="11" width="19.1328125" customWidth="1"/>
-    <col min="12" max="13" width="20.265625" customWidth="1"/>
-    <col min="14" max="14" width="26.73046875" customWidth="1"/>
-    <col min="15" max="15" width="21.73046875" customWidth="1"/>
-    <col min="16" max="16" width="18.73046875" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
     <col min="17" max="17" width="34" customWidth="1"/>
-    <col min="18" max="18" width="31.73046875" customWidth="1"/>
+    <col min="18" max="18" width="31.7109375" customWidth="1"/>
     <col min="19" max="19" width="33" customWidth="1"/>
     <col min="20" max="20" width="30" customWidth="1"/>
-    <col min="21" max="21" width="33.265625" customWidth="1"/>
-    <col min="22" max="22" width="31.59765625" customWidth="1"/>
-    <col min="23" max="23" width="34.86328125" customWidth="1"/>
-    <col min="24" max="24" width="13.3984375" customWidth="1"/>
-    <col min="25" max="25" width="16.3984375" customWidth="1"/>
-    <col min="26" max="26" width="15.3984375" customWidth="1"/>
-    <col min="27" max="27" width="14.86328125" customWidth="1"/>
-    <col min="28" max="28" width="17.86328125" customWidth="1"/>
-    <col min="29" max="29" width="17.73046875" customWidth="1"/>
+    <col min="21" max="21" width="33.28515625" customWidth="1"/>
+    <col min="22" max="22" width="31.5703125" customWidth="1"/>
+    <col min="23" max="23" width="34.85546875" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" customWidth="1"/>
+    <col min="29" max="29" width="17.7109375" customWidth="1"/>
     <col min="30" max="30" width="21" customWidth="1"/>
-    <col min="31" max="31" width="16.59765625" customWidth="1"/>
-    <col min="32" max="32" width="29.3984375" customWidth="1"/>
-    <col min="33" max="33" width="33.86328125" customWidth="1"/>
-    <col min="34" max="34" width="33.59765625" customWidth="1"/>
+    <col min="31" max="31" width="16.5703125" customWidth="1"/>
+    <col min="32" max="32" width="29.42578125" customWidth="1"/>
+    <col min="33" max="33" width="33.85546875" customWidth="1"/>
+    <col min="34" max="34" width="33.5703125" customWidth="1"/>
     <col min="35" max="35" width="38" customWidth="1"/>
-    <col min="36" max="36" width="21.1328125" customWidth="1"/>
+    <col min="36" max="36" width="21.140625" customWidth="1"/>
     <col min="37" max="37" width="17" customWidth="1"/>
-    <col min="38" max="38" width="21.3984375" customWidth="1"/>
-    <col min="39" max="39" width="25.1328125" customWidth="1"/>
-    <col min="40" max="40" width="29.59765625" customWidth="1"/>
-    <col min="41" max="41" width="26.265625" customWidth="1"/>
+    <col min="38" max="38" width="21.42578125" customWidth="1"/>
+    <col min="39" max="39" width="25.140625" customWidth="1"/>
+    <col min="40" max="40" width="29.5703125" customWidth="1"/>
+    <col min="41" max="41" width="26.28515625" customWidth="1"/>
     <col min="42" max="42" width="24" customWidth="1"/>
-    <col min="43" max="43" width="25.59765625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="47" max="48" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.73046875" style="13" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="12" style="13" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="12" style="13" customWidth="1"/>
-    <col min="53" max="53" width="7.73046875" style="13" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.73046875" style="13" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="7.73046875" style="13" customWidth="1"/>
-    <col min="57" max="57" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7.7109375" style="13" customWidth="1"/>
+    <col min="57" max="57" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="12" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.265625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="25.73046875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="26.73046875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="26.73046875" customWidth="1"/>
-    <col min="67" max="67" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="26.7109375" customWidth="1"/>
+    <col min="67" max="67" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="12" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="31.3984375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="32" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="9" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="10" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="12" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="12" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="94" max="95" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="22" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="12" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="22" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="12" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="22" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="12" bestFit="1" customWidth="1"/>
     <col min="105" max="105" width="22" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="12" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="22" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="12" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="22" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="12" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="22" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="12" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="22" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="119" max="119" width="12" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="22" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="12" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="23" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="13" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="23" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="13" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="23" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="131" max="131" width="13" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="149" max="149" width="7" bestFit="1" customWidth="1"/>
     <col min="150" max="157" width="18" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="159" max="166" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="159" max="166" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1215,10 +1215,10 @@
         <v>69</v>
       </c>
       <c r="O1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" t="s">
         <v>132</v>
-      </c>
-      <c r="P1" t="s">
-        <v>133</v>
       </c>
       <c r="Q1" t="s">
         <v>58</v>
@@ -1239,7 +1239,7 @@
         <v>60</v>
       </c>
       <c r="W1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X1" t="s">
         <v>17</v>
@@ -1266,16 +1266,16 @@
         <v>83</v>
       </c>
       <c r="AF1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH1" t="s">
         <v>143</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>145</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>146</v>
       </c>
       <c r="AJ1" t="s">
         <v>63</v>
@@ -1284,22 +1284,22 @@
         <v>65</v>
       </c>
       <c r="AL1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN1" t="s">
         <v>140</v>
       </c>
-      <c r="AN1" t="s">
-        <v>141</v>
-      </c>
       <c r="AO1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AP1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AR1" t="s">
         <v>64</v>
@@ -1308,16 +1308,16 @@
         <v>84</v>
       </c>
       <c r="AT1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AU1" s="13" t="s">
         <v>107</v>
       </c>
       <c r="AV1" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AW1" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AX1" t="s">
         <v>108</v>
@@ -1326,19 +1326,19 @@
         <v>109</v>
       </c>
       <c r="AZ1" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BA1" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB1" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="BB1" s="13" t="s">
+      <c r="BC1" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="BC1" s="13" t="s">
+      <c r="BD1" s="13" t="s">
         <v>152</v>
-      </c>
-      <c r="BD1" s="13" t="s">
-        <v>153</v>
       </c>
       <c r="BE1" t="s">
         <v>110</v>
@@ -1350,10 +1350,10 @@
         <v>112</v>
       </c>
       <c r="BH1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BI1" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="BJ1" t="s">
         <v>82</v>
@@ -1362,49 +1362,49 @@
         <v>66</v>
       </c>
       <c r="BL1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BM1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BN1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO1" t="s">
         <v>9</v>
       </c>
       <c r="BP1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BQ1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU1" t="s">
         <v>134</v>
       </c>
-      <c r="BR1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BX1" t="s">
         <v>116</v>
       </c>
-      <c r="BU1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>117</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>118</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>119</v>
       </c>
       <c r="CA1" t="s">
         <v>81</v>
@@ -1428,7 +1428,7 @@
         <v>8</v>
       </c>
       <c r="CH1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CI1" t="s">
         <v>54</v>
@@ -1455,115 +1455,115 @@
         <v>97</v>
       </c>
       <c r="CQ1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="CR1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="CS1" t="s">
         <v>85</v>
       </c>
       <c r="CT1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="CU1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CV1" t="s">
         <v>86</v>
       </c>
       <c r="CW1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="CX1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="CY1" t="s">
         <v>94</v>
       </c>
       <c r="CZ1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DA1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="DB1" t="s">
         <v>93</v>
       </c>
       <c r="DC1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="DD1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="DE1" t="s">
         <v>92</v>
       </c>
       <c r="DF1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="DG1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="DH1" t="s">
         <v>102</v>
       </c>
       <c r="DI1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="DJ1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DK1" t="s">
         <v>103</v>
       </c>
       <c r="DL1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DM1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="DN1" t="s">
         <v>91</v>
       </c>
       <c r="DO1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="DP1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DQ1" t="s">
         <v>90</v>
       </c>
       <c r="DR1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="DS1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="DT1" t="s">
         <v>89</v>
       </c>
       <c r="DU1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="DV1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="DW1" t="s">
         <v>88</v>
       </c>
       <c r="DX1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="DY1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="DZ1" t="s">
         <v>87</v>
       </c>
       <c r="EA1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="EB1" t="s">
         <v>49</v>
@@ -1572,49 +1572,49 @@
         <v>25</v>
       </c>
       <c r="ED1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="EE1" t="s">
         <v>26</v>
       </c>
       <c r="EF1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="EG1" t="s">
         <v>27</v>
       </c>
       <c r="EH1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="EI1" t="s">
         <v>28</v>
       </c>
       <c r="EJ1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="EK1" t="s">
         <v>29</v>
       </c>
       <c r="EL1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="EM1" t="s">
         <v>30</v>
       </c>
       <c r="EN1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="EO1" t="s">
         <v>31</v>
       </c>
       <c r="EP1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="EQ1" t="s">
         <v>32</v>
       </c>
       <c r="ER1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="ES1" t="s">
         <v>50</v>
@@ -1671,7 +1671,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1859,7 +1859,7 @@
       <c r="FI2" s="6"/>
       <c r="FJ2" s="6"/>
     </row>
-    <row r="3" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2101,7 +2101,7 @@
       <c r="FI3" s="6"/>
       <c r="FJ3" s="6"/>
     </row>
-    <row r="4" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="FI4" s="6"/>
       <c r="FJ4" s="6"/>
     </row>
-    <row r="5" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2435,7 +2435,7 @@
       <c r="FI5" s="6"/>
       <c r="FJ5" s="6"/>
     </row>
-    <row r="6" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="FI6" s="6"/>
       <c r="FJ6" s="6"/>
     </row>
-    <row r="7" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="FI7" s="6"/>
       <c r="FJ7" s="6"/>
     </row>
-    <row r="8" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3053,7 +3053,7 @@
       <c r="FI8" s="6"/>
       <c r="FJ8" s="6"/>
     </row>
-    <row r="9" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="FI9" s="6"/>
       <c r="FJ9" s="6"/>
     </row>
-    <row r="10" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="FI10" s="6"/>
       <c r="FJ10" s="6"/>
     </row>
-    <row r="11" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="FI11" s="6"/>
       <c r="FJ11" s="6"/>
     </row>
-    <row r="12" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -3803,7 +3803,7 @@
       <c r="FI12" s="6"/>
       <c r="FJ12" s="6"/>
     </row>
-    <row r="13" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -4035,7 +4035,7 @@
       <c r="FI13" s="6"/>
       <c r="FJ13" s="6"/>
     </row>
-    <row r="14" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -4248,7 +4248,7 @@
       <c r="FI14" s="6"/>
       <c r="FJ14" s="6"/>
     </row>
-    <row r="15" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4430,7 +4430,7 @@
       <c r="FI15" s="6"/>
       <c r="FJ15" s="6"/>
     </row>
-    <row r="16" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -4615,7 +4615,7 @@
       <c r="FI16" s="6"/>
       <c r="FJ16" s="6"/>
     </row>
-    <row r="17" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -4851,7 +4851,7 @@
       <c r="FI17" s="6"/>
       <c r="FJ17" s="6"/>
     </row>
-    <row r="18" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -5353,7 +5353,7 @@
       <c r="FI19" s="6"/>
       <c r="FJ19" s="6"/>
     </row>
-    <row r="20" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -5565,7 +5565,7 @@
       <c r="FI20" s="6"/>
       <c r="FJ20" s="6"/>
     </row>
-    <row r="21" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -5759,7 +5759,7 @@
       <c r="FI21" s="6"/>
       <c r="FJ21" s="6"/>
     </row>
-    <row r="22" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -5944,7 +5944,7 @@
       <c r="FI22" s="6"/>
       <c r="FJ22" s="6"/>
     </row>
-    <row r="23" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -6196,7 +6196,7 @@
       <c r="FI23" s="6"/>
       <c r="FJ23" s="6"/>
     </row>
-    <row r="24" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -6381,7 +6381,7 @@
       <c r="FI24" s="6"/>
       <c r="FJ24" s="6"/>
     </row>
-    <row r="25" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -6577,7 +6577,7 @@
       <c r="FI25" s="6"/>
       <c r="FJ25" s="6"/>
     </row>
-    <row r="26" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6762,7 +6762,7 @@
       <c r="FI26" s="6"/>
       <c r="FJ26" s="6"/>
     </row>
-    <row r="27" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -6961,7 +6961,7 @@
       <c r="FI27" s="6"/>
       <c r="FJ27" s="6"/>
     </row>
-    <row r="28" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -7149,7 +7149,7 @@
       <c r="FI28" s="6"/>
       <c r="FJ28" s="6"/>
     </row>
-    <row r="29" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -7337,7 +7337,7 @@
       <c r="FI29" s="6"/>
       <c r="FJ29" s="6"/>
     </row>
-    <row r="30" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -7571,7 +7571,7 @@
       <c r="FI30" s="6"/>
       <c r="FJ30" s="6"/>
     </row>
-    <row r="31" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -7752,7 +7752,7 @@
       <c r="FI31" s="6"/>
       <c r="FJ31" s="6"/>
     </row>
-    <row r="32" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -7933,7 +7933,7 @@
       <c r="FI32" s="6"/>
       <c r="FJ32" s="6"/>
     </row>
-    <row r="33" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -8156,7 +8156,7 @@
       <c r="FI33" s="6"/>
       <c r="FJ33" s="6"/>
     </row>
-    <row r="34" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -8336,7 +8336,7 @@
       <c r="FI34" s="6"/>
       <c r="FJ34" s="6"/>
     </row>
-    <row r="35" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -8520,7 +8520,7 @@
       <c r="FI35" s="6"/>
       <c r="FJ35" s="6"/>
     </row>
-    <row r="36" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -8766,7 +8766,7 @@
       <c r="FI36" s="6"/>
       <c r="FJ36" s="6"/>
     </row>
-    <row r="37" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -8943,7 +8943,7 @@
       <c r="FI37" s="6"/>
       <c r="FJ37" s="6"/>
     </row>
-    <row r="38" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -9170,7 +9170,7 @@
       <c r="FI38" s="6"/>
       <c r="FJ38" s="6"/>
     </row>
-    <row r="39" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -9397,7 +9397,7 @@
       <c r="FI39" s="6"/>
       <c r="FJ39" s="6"/>
     </row>
-    <row r="40" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -9582,7 +9582,7 @@
       <c r="FI40" s="6"/>
       <c r="FJ40" s="6"/>
     </row>
-    <row r="41" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -9776,7 +9776,7 @@
       <c r="FI41" s="6"/>
       <c r="FJ41" s="6"/>
     </row>
-    <row r="42" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -10012,7 +10012,7 @@
       <c r="FI42" s="6"/>
       <c r="FJ42" s="6"/>
     </row>
-    <row r="43" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -10484,7 +10484,7 @@
       <c r="FI44" s="6"/>
       <c r="FJ44" s="6"/>
     </row>
-    <row r="45" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -10711,7 +10711,7 @@
       <c r="FI45" s="6"/>
       <c r="FJ45" s="6"/>
     </row>
-    <row r="46" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -10905,7 +10905,7 @@
       <c r="FI46" s="6"/>
       <c r="FJ46" s="6"/>
     </row>
-    <row r="47" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -11090,7 +11090,7 @@
       <c r="FI47" s="6"/>
       <c r="FJ47" s="6"/>
     </row>
-    <row r="48" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -11275,7 +11275,7 @@
       <c r="FI48" s="6"/>
       <c r="FJ48" s="6"/>
     </row>
-    <row r="49" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -11515,7 +11515,7 @@
       <c r="FI49" s="6"/>
       <c r="FJ49" s="6"/>
     </row>
-    <row r="50" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -11700,7 +11700,7 @@
       <c r="FI50" s="6"/>
       <c r="FJ50" s="6"/>
     </row>
-    <row r="51" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -11894,7 +11894,7 @@
       <c r="FI51" s="6"/>
       <c r="FJ51" s="6"/>
     </row>
-    <row r="52" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -12079,7 +12079,7 @@
       <c r="FI52" s="6"/>
       <c r="FJ52" s="6"/>
     </row>
-    <row r="53" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -12276,7 +12276,7 @@
       <c r="FI53" s="6"/>
       <c r="FJ53" s="6"/>
     </row>
-    <row r="54" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -12464,7 +12464,7 @@
       <c r="FI54" s="6"/>
       <c r="FJ54" s="6"/>
     </row>
-    <row r="55" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -12652,7 +12652,7 @@
       <c r="FI55" s="6"/>
       <c r="FJ55" s="6"/>
     </row>
-    <row r="56" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -12890,7 +12890,7 @@
       <c r="FI56" s="6"/>
       <c r="FJ56" s="6"/>
     </row>
-    <row r="57" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -13075,7 +13075,7 @@
       <c r="FI57" s="6"/>
       <c r="FJ57" s="6"/>
     </row>
-    <row r="58" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -13260,7 +13260,7 @@
       <c r="FI58" s="6"/>
       <c r="FJ58" s="6"/>
     </row>
-    <row r="59" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -13482,7 +13482,7 @@
       <c r="FI59" s="6"/>
       <c r="FJ59" s="6"/>
     </row>
-    <row r="60" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -13661,7 +13661,7 @@
       <c r="FI60" s="6"/>
       <c r="FJ60" s="6"/>
     </row>
-    <row r="61" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -13840,7 +13840,7 @@
       <c r="FI61" s="6"/>
       <c r="FJ61" s="6"/>
     </row>
-    <row r="62" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -14081,7 +14081,7 @@
       <c r="FI62" s="6"/>
       <c r="FJ62" s="6"/>
     </row>
-    <row r="63" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -14253,7 +14253,7 @@
       <c r="FI63" s="6"/>
       <c r="FJ63" s="6"/>
     </row>
-    <row r="64" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -14480,7 +14480,7 @@
       <c r="FI64" s="6"/>
       <c r="FJ64" s="6"/>
     </row>
-    <row r="65" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -14707,7 +14707,7 @@
       <c r="FI65" s="6"/>
       <c r="FJ65" s="6"/>
     </row>
-    <row r="66" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -14901,7 +14901,7 @@
       <c r="FI66" s="6"/>
       <c r="FJ66" s="6"/>
     </row>
-    <row r="67" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>22</v>
       </c>
@@ -15086,7 +15086,7 @@
       <c r="FI67" s="6"/>
       <c r="FJ67" s="6"/>
     </row>
-    <row r="68" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -15322,7 +15322,7 @@
       <c r="FI68" s="6"/>
       <c r="FJ68" s="6"/>
     </row>
-    <row r="69" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -15556,7 +15556,7 @@
         <v>8.8749999999999996E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>22</v>
       </c>
@@ -15794,7 +15794,7 @@
       <c r="FI70" s="6"/>
       <c r="FJ70" s="6"/>
     </row>
-    <row r="71" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>22</v>
       </c>
@@ -16021,7 +16021,7 @@
       <c r="FI71" s="6"/>
       <c r="FJ71" s="6"/>
     </row>
-    <row r="72" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -16215,7 +16215,7 @@
       <c r="FI72" s="6"/>
       <c r="FJ72" s="6"/>
     </row>
-    <row r="73" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -16400,7 +16400,7 @@
       <c r="FI73" s="6"/>
       <c r="FJ73" s="6"/>
     </row>
-    <row r="74" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>22</v>
       </c>
@@ -16594,7 +16594,7 @@
       <c r="FI74" s="6"/>
       <c r="FJ74" s="6"/>
     </row>
-    <row r="75" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>22</v>
       </c>
@@ -16834,7 +16834,7 @@
       <c r="FI75" s="6"/>
       <c r="FJ75" s="6"/>
     </row>
-    <row r="76" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -17019,7 +17019,7 @@
       <c r="FI76" s="6"/>
       <c r="FJ76" s="6"/>
     </row>
-    <row r="77" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>22</v>
       </c>
@@ -17204,7 +17204,7 @@
       <c r="FI77" s="6"/>
       <c r="FJ77" s="6"/>
     </row>
-    <row r="78" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -17389,7 +17389,7 @@
       <c r="FI78" s="6"/>
       <c r="FJ78" s="6"/>
     </row>
-    <row r="79" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>22</v>
       </c>
@@ -17586,7 +17586,7 @@
       <c r="FI79" s="6"/>
       <c r="FJ79" s="6"/>
     </row>
-    <row r="80" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>22</v>
       </c>

--- a/Tests/UnderReview/Cotton/Observed/DouglasDaly21Observed.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/DouglasDaly21Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F006E8FD-5DBE-48A5-B530-D237EC7C0424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D04404-1BAD-4475-B7E7-64C1F4B3DEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="17640" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
   </bookViews>
@@ -284,9 +284,6 @@
     <t>Cotton.Sites</t>
   </si>
   <si>
-    <t>Cotton.Fruit.N</t>
-  </si>
-  <si>
     <t>Cotton.Stem.N</t>
   </si>
   <si>
@@ -377,13 +374,7 @@
     <t>dw_OB</t>
   </si>
   <si>
-    <t>Cotton.Fruit.Nconc</t>
-  </si>
-  <si>
     <t>Cotton.Lint.Wt</t>
-  </si>
-  <si>
-    <t>Cotton.Fruit.HarvestIndex</t>
   </si>
   <si>
     <t>Yield_bales</t>
@@ -393,9 +384,6 @@
   </si>
   <si>
     <t>AboveGround.Partitioning.Leaf</t>
-  </si>
-  <si>
-    <t>AboveGround.Partitioning.Fruit</t>
   </si>
   <si>
     <t>LeafArea.Site</t>
@@ -588,6 +576,18 @@
   </si>
   <si>
     <t>Cotton.Leaf.SpecificAreaCanopy</t>
+  </si>
+  <si>
+    <t>Cotton.Boll.NConc</t>
+  </si>
+  <si>
+    <t>Cotton.Boll.N</t>
+  </si>
+  <si>
+    <t>Cotton.Boll.HarvestIndex</t>
+  </si>
+  <si>
+    <t>AboveGround.Partitioning.Boll</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:FJ80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1197,13 +1197,13 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
         <v>99</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>100</v>
-      </c>
-      <c r="K1" t="s">
-        <v>101</v>
       </c>
       <c r="L1" t="s">
         <v>57</v>
@@ -1215,10 +1215,10 @@
         <v>69</v>
       </c>
       <c r="O1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q1" t="s">
         <v>58</v>
@@ -1230,7 +1230,7 @@
         <v>59</v>
       </c>
       <c r="T1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U1" t="s">
         <v>74</v>
@@ -1239,7 +1239,7 @@
         <v>60</v>
       </c>
       <c r="W1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="X1" t="s">
         <v>17</v>
@@ -1263,19 +1263,19 @@
         <v>62</v>
       </c>
       <c r="AE1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AG1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AH1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AI1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AJ1" t="s">
         <v>63</v>
@@ -1284,127 +1284,127 @@
         <v>65</v>
       </c>
       <c r="AL1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AM1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AN1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AO1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AP1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AQ1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AR1" t="s">
         <v>64</v>
       </c>
       <c r="AS1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AT1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AU1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX1" t="s">
         <v>107</v>
       </c>
-      <c r="AV1" s="13" t="s">
+      <c r="AY1" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC1" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="BD1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="AW1" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AY1" s="13" t="s">
+      <c r="BE1" t="s">
         <v>109</v>
       </c>
-      <c r="AZ1" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="BA1" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="BB1" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="BC1" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BD1" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>110</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>111</v>
       </c>
-      <c r="BG1" t="s">
-        <v>112</v>
-      </c>
       <c r="BH1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="BI1" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="BJ1" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="BK1" t="s">
         <v>66</v>
       </c>
       <c r="BL1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="BM1" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="BN1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="BO1" t="s">
         <v>9</v>
       </c>
       <c r="BP1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BX1" t="s">
         <v>114</v>
       </c>
-      <c r="BQ1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>117</v>
-      </c>
       <c r="BY1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="BZ1" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="CA1" t="s">
         <v>81</v>
@@ -1422,13 +1422,13 @@
         <v>7</v>
       </c>
       <c r="CF1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="CG1" t="s">
         <v>8</v>
       </c>
       <c r="CH1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="CI1" t="s">
         <v>54</v>
@@ -1443,127 +1443,127 @@
         <v>71</v>
       </c>
       <c r="CM1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CN1" t="s">
         <v>72</v>
       </c>
       <c r="CO1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="CP1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="CQ1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="CR1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>165</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>167</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD1" t="s">
         <v>157</v>
       </c>
-      <c r="CS1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CT1" t="s">
+      <c r="DE1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DF1" t="s">
         <v>169</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="DG1" t="s">
         <v>158</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="DH1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>172</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>161</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>162</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>163</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>87</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>175</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>164</v>
+      </c>
+      <c r="DZ1" t="s">
         <v>86</v>
       </c>
-      <c r="CW1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>160</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>93</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>172</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>161</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>175</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>164</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DO1" t="s">
+      <c r="EA1" t="s">
         <v>176</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>90</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>177</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>166</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>89</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>178</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>167</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>88</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>179</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>168</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>87</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>180</v>
       </c>
       <c r="EB1" t="s">
         <v>49</v>
@@ -1572,49 +1572,49 @@
         <v>25</v>
       </c>
       <c r="ED1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="EE1" t="s">
         <v>26</v>
       </c>
       <c r="EF1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="EG1" t="s">
         <v>27</v>
       </c>
       <c r="EH1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="EI1" t="s">
         <v>28</v>
       </c>
       <c r="EJ1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="EK1" t="s">
         <v>29</v>
       </c>
       <c r="EL1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="EM1" t="s">
         <v>30</v>
       </c>
       <c r="EN1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="EO1" t="s">
         <v>31</v>
       </c>
       <c r="EP1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="EQ1" t="s">
         <v>32</v>
       </c>
       <c r="ER1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="ES1" t="s">
         <v>50</v>
@@ -4411,7 +4411,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
         <v>55</v>
@@ -10045,7 +10045,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F41" t="s">
         <v>55</v>
@@ -15460,7 +15460,7 @@
         <v>6</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F66" t="s">
         <v>55</v>

--- a/Tests/UnderReview/Cotton/Observed/DouglasDaly21Observed.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/DouglasDaly21Observed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FE5011-C3C6-47E0-BBFA-334B963E83BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CC8C91-D466-4B0D-BD23-3019712502A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="17640" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
+    <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
   </bookViews>
   <sheets>
     <sheet name="CottonObserved" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CottonObserved!$A$1:$FB$813</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PhenologyObserved!$A$1:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PhenologyObserved!$A$1:$G$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="175">
   <si>
     <t>SimulationName</t>
   </si>
@@ -548,9 +548,6 @@
   </si>
   <si>
     <t>Cotton.Phenology.SquaringDAS</t>
-  </si>
-  <si>
-    <t>Cotton.Phenology.EmergenceDAS</t>
   </si>
   <si>
     <t>Cotton.Phenology.FloweringDAS</t>
@@ -989,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C911DF83-7300-4B7A-8A42-16858D40307A}">
   <dimension ref="A1:FB80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -17086,119 +17083,200 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04092CC-3E99-4CC3-A422-D5F4B9AD661C}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" t="s">
         <v>170</v>
-      </c>
-      <c r="C1" t="s">
-        <v>169</v>
       </c>
       <c r="D1" t="s">
         <v>171</v>
       </c>
       <c r="E1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
         <v>172</v>
-      </c>
-      <c r="F1" t="s">
-        <v>175</v>
       </c>
       <c r="G1" t="s">
         <v>173</v>
       </c>
-      <c r="H1" t="s">
-        <v>174</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>34</v>
+      </c>
       <c r="C2" s="3">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E2" s="3">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F2" s="3">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="G2" s="3">
-        <v>132</v>
-      </c>
-      <c r="H2" s="3">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>34</v>
+      </c>
       <c r="C3" s="3">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E3" s="3">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F3" s="3">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="G3" s="3">
-        <v>132</v>
-      </c>
-      <c r="H3" s="3">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3">
+        <v>34</v>
+      </c>
       <c r="C4" s="3">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D4" s="3">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F4" s="3">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="G4" s="3">
-        <v>118</v>
-      </c>
-      <c r="H4" s="3">
         <v>146</v>
       </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
